--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Angptl3</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Angptl3</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>1.360798</v>
       </c>
       <c r="I2">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J2">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>2.517921054146333</v>
+        <v>3.919738495459</v>
       </c>
       <c r="R2">
-        <v>15.107526324878</v>
+        <v>23.518430972754</v>
       </c>
       <c r="S2">
-        <v>0.05717754576435784</v>
+        <v>0.04455567691262815</v>
       </c>
       <c r="T2">
-        <v>0.05001903542620966</v>
+        <v>0.03785252706746594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>1.360798</v>
       </c>
       <c r="I3">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J3">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
         <v>0.6020202103953332</v>
@@ -641,10 +641,10 @@
         <v>5.418181893558</v>
       </c>
       <c r="S3">
-        <v>0.01367081707119599</v>
+        <v>0.006843165180616438</v>
       </c>
       <c r="T3">
-        <v>0.01793888862091484</v>
+        <v>0.008720474466173193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>1.360798</v>
       </c>
       <c r="I4">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J4">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>0.113528655544</v>
+        <v>0.2541033225377777</v>
       </c>
       <c r="R4">
-        <v>1.021757899896</v>
+        <v>2.28692990284</v>
       </c>
       <c r="S4">
-        <v>0.00257803551356135</v>
+        <v>0.002888393078909412</v>
       </c>
       <c r="T4">
-        <v>0.003382906207996981</v>
+        <v>0.003680775990070714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -735,10 +735,10 @@
         <v>1.360798</v>
       </c>
       <c r="I5">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J5">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>0.2774916601633333</v>
+        <v>0.3716799741323333</v>
       </c>
       <c r="R5">
-        <v>1.66494996098</v>
+        <v>2.230079844794</v>
       </c>
       <c r="S5">
-        <v>0.006301346133187593</v>
+        <v>0.00422488716058978</v>
       </c>
       <c r="T5">
-        <v>0.0055124306448493</v>
+        <v>0.003589276758533278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>1.360798</v>
       </c>
       <c r="I6">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J6">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>1.815249797680445</v>
+        <v>6.855376605275778</v>
       </c>
       <c r="R6">
-        <v>16.337248179124</v>
+        <v>61.698389447482</v>
       </c>
       <c r="S6">
-        <v>0.04122112097585364</v>
+        <v>0.07792508237294782</v>
       </c>
       <c r="T6">
-        <v>0.05409048297289541</v>
+        <v>0.09930254102773542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>1.360798</v>
       </c>
       <c r="I7">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J7">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>0.1619440339866667</v>
+        <v>0.07314425329799999</v>
       </c>
       <c r="R7">
-        <v>1.45749630588</v>
+        <v>0.6582982796820001</v>
       </c>
       <c r="S7">
-        <v>0.003677463357832195</v>
+        <v>0.0008314309032953734</v>
       </c>
       <c r="T7">
-        <v>0.004825578839954141</v>
+        <v>0.001059520232408227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,14 +900,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H8">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I8">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J8">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>6.976537053839167</v>
+        <v>4.227139426748501</v>
       </c>
       <c r="R8">
-        <v>41.85922232303501</v>
+        <v>25.362836560491</v>
       </c>
       <c r="S8">
-        <v>0.1584248505391958</v>
+        <v>0.04804990403850486</v>
       </c>
       <c r="T8">
-        <v>0.138590387285417</v>
+        <v>0.04082106746516855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H9">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I9">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J9">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
-        <v>1.668049241681666</v>
+        <v>0.6492329450063333</v>
       </c>
       <c r="R9">
-        <v>15.012443175135</v>
+        <v>5.843096505057</v>
       </c>
       <c r="S9">
-        <v>0.0378784559970215</v>
+        <v>0.007379832448579947</v>
       </c>
       <c r="T9">
-        <v>0.049704227605713</v>
+        <v>0.009404367530798171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H10">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I10">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J10">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>0.31455985118</v>
+        <v>0.2740310799844445</v>
       </c>
       <c r="R10">
-        <v>2.83103866062</v>
+        <v>2.46627971986</v>
       </c>
       <c r="S10">
-        <v>0.007143099366382585</v>
+        <v>0.003114911945771455</v>
       </c>
       <c r="T10">
-        <v>0.009373197174267673</v>
+        <v>0.003969436564883697</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H11">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I11">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J11">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>0.7688608211416668</v>
+        <v>0.4008285436918333</v>
       </c>
       <c r="R11">
-        <v>4.613164926850001</v>
+        <v>2.404971262151</v>
       </c>
       <c r="S11">
-        <v>0.01745947305014055</v>
+        <v>0.004556219020932742</v>
       </c>
       <c r="T11">
-        <v>0.01527358317576332</v>
+        <v>0.003870761612562982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H12">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I12">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J12">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>5.029608634725556</v>
+        <v>7.393001540011446</v>
       </c>
       <c r="R12">
-        <v>45.26647771253</v>
+        <v>66.53701386010302</v>
       </c>
       <c r="S12">
-        <v>0.1142135403392662</v>
+        <v>0.08403626630014248</v>
       </c>
       <c r="T12">
-        <v>0.1498713623681905</v>
+        <v>0.107090227279434</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H13">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I13">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J13">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>0.4487069012333334</v>
+        <v>0.07888050626700001</v>
       </c>
       <c r="R13">
-        <v>4.038362111100001</v>
+        <v>0.7099245564030001</v>
       </c>
       <c r="S13">
-        <v>0.01018934225034725</v>
+        <v>0.0008966349046010626</v>
       </c>
       <c r="T13">
-        <v>0.01337048654790975</v>
+        <v>0.001142611873990868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H14">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I14">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J14">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>4.974550031938501</v>
+        <v>9.408738596259751</v>
       </c>
       <c r="R14">
-        <v>19.898200127754</v>
+        <v>37.634954385039</v>
       </c>
       <c r="S14">
-        <v>0.1129632565881556</v>
+        <v>0.1069491542703627</v>
       </c>
       <c r="T14">
-        <v>0.06588032717632709</v>
+        <v>0.06057283885956943</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H15">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I15">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J15">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>1.189385843499</v>
+        <v>1.4450583363755</v>
       </c>
       <c r="R15">
-        <v>7.136315060993999</v>
+        <v>8.670350018252998</v>
       </c>
       <c r="S15">
-        <v>0.02700885454139068</v>
+        <v>0.01642598158781181</v>
       </c>
       <c r="T15">
-        <v>0.02362740187721201</v>
+        <v>0.01395478546721665</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H16">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I16">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J16">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>0.224293758588</v>
+        <v>0.6099365406566666</v>
       </c>
       <c r="R16">
-        <v>1.345762551528</v>
+        <v>3.65961924394</v>
       </c>
       <c r="S16">
-        <v>0.005093315624493713</v>
+        <v>0.006933150125751489</v>
       </c>
       <c r="T16">
-        <v>0.004455643054501772</v>
+        <v>0.005890096862683556</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H17">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I17">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J17">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>0.548228525535</v>
+        <v>0.8921614852947499</v>
       </c>
       <c r="R17">
-        <v>2.19291410214</v>
+        <v>3.568645941179</v>
       </c>
       <c r="S17">
-        <v>0.01244930279147749</v>
+        <v>0.01014120175076335</v>
       </c>
       <c r="T17">
-        <v>0.00726045057296706</v>
+        <v>0.005743676831127586</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H18">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I18">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J18">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>3.586312177722001</v>
+        <v>16.45529326323117</v>
       </c>
       <c r="R18">
-        <v>21.517873066332</v>
+        <v>98.731759579387</v>
       </c>
       <c r="S18">
-        <v>0.08143882363956606</v>
+        <v>0.1870473581307673</v>
       </c>
       <c r="T18">
-        <v>0.07124285154672631</v>
+        <v>0.1589071399459799</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H19">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I19">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J19">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>0.31994597214</v>
+        <v>0.1755717020145</v>
       </c>
       <c r="R19">
-        <v>1.91967583284</v>
+        <v>1.053430212087</v>
       </c>
       <c r="S19">
-        <v>0.007265408672774711</v>
+        <v>0.001995723959397003</v>
       </c>
       <c r="T19">
-        <v>0.006355794550663338</v>
+        <v>0.001695478565849251</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H20">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I20">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J20">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>0.2765683517783333</v>
+        <v>10.9996210131745</v>
       </c>
       <c r="R20">
-        <v>1.65941011067</v>
+        <v>65.997726079047</v>
       </c>
       <c r="S20">
-        <v>0.006280379428393169</v>
+        <v>0.1250327185326603</v>
       </c>
       <c r="T20">
-        <v>0.00549408892808158</v>
+        <v>0.1062222524832741</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H21">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I21">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J21">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>0.06612587676333331</v>
+        <v>1.689396923874333</v>
       </c>
       <c r="R21">
-        <v>0.5951328908699999</v>
+        <v>15.204572314869</v>
       </c>
       <c r="S21">
-        <v>0.001501602021484206</v>
+        <v>0.01920337890002998</v>
       </c>
       <c r="T21">
-        <v>0.001970406836406388</v>
+        <v>0.02447150856979247</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H22">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I22">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J22">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>0.01246998316</v>
+        <v>0.7130680399577778</v>
       </c>
       <c r="R22">
-        <v>0.11222984844</v>
+        <v>6.41761235962</v>
       </c>
       <c r="S22">
-        <v>0.0002831713216891963</v>
+        <v>0.008105446126543032</v>
       </c>
       <c r="T22">
-        <v>0.0003715782878203148</v>
+        <v>0.01032904133070973</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H23">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I23">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J23">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>0.03047967328333333</v>
+        <v>1.043013164877833</v>
       </c>
       <c r="R23">
-        <v>0.1828780397</v>
+        <v>6.258078989267</v>
       </c>
       <c r="S23">
-        <v>0.0006921396169949909</v>
+        <v>0.01185593315568176</v>
       </c>
       <c r="T23">
-        <v>0.0006054851700881578</v>
+        <v>0.01007227500023272</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H24">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I24">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J24">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>0.1993869679844445</v>
+        <v>19.23764675831678</v>
       </c>
       <c r="R24">
-        <v>1.79448271186</v>
+        <v>173.138820824851</v>
       </c>
       <c r="S24">
-        <v>0.004527726343116939</v>
+        <v>0.2186743770064843</v>
       </c>
       <c r="T24">
-        <v>0.005941296570070412</v>
+        <v>0.2786640787939591</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H25">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I25">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J25">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>0.01778792646666667</v>
+        <v>0.205258352439</v>
       </c>
       <c r="R25">
-        <v>0.1600913382</v>
+        <v>1.847325171951</v>
       </c>
       <c r="S25">
-        <v>0.0004039324338330732</v>
+        <v>0.002333172186227571</v>
       </c>
       <c r="T25">
-        <v>0.0005300413942465711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H26">
-        <v>2.949851</v>
-      </c>
-      <c r="I26">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J26">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>5.550980500000001</v>
-      </c>
-      <c r="N26">
-        <v>11.101961</v>
-      </c>
-      <c r="O26">
-        <v>0.4587918645086687</v>
-      </c>
-      <c r="P26">
-        <v>0.3684119094562331</v>
-      </c>
-      <c r="Q26">
-        <v>5.458188459635166</v>
-      </c>
-      <c r="R26">
-        <v>32.749130757811</v>
-      </c>
-      <c r="S26">
-        <v>0.1239458321885664</v>
-      </c>
-      <c r="T26">
-        <v>0.1084280706401979</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H27">
-        <v>2.949851</v>
-      </c>
-      <c r="I27">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J27">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.327207</v>
-      </c>
-      <c r="N27">
-        <v>3.981621</v>
-      </c>
-      <c r="O27">
-        <v>0.1096944538210784</v>
-      </c>
-      <c r="P27">
-        <v>0.1321277020646205</v>
-      </c>
-      <c r="Q27">
-        <v>1.305020965385666</v>
-      </c>
-      <c r="R27">
-        <v>11.745188688471</v>
-      </c>
-      <c r="S27">
-        <v>0.029634724189986</v>
-      </c>
-      <c r="T27">
-        <v>0.03888677712437426</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H28">
-        <v>2.949851</v>
-      </c>
-      <c r="I28">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J28">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.250284</v>
-      </c>
-      <c r="N28">
-        <v>0.750852</v>
-      </c>
-      <c r="O28">
-        <v>0.02068612257180288</v>
-      </c>
-      <c r="P28">
-        <v>0.02491657276034671</v>
-      </c>
-      <c r="Q28">
-        <v>0.246100169228</v>
-      </c>
-      <c r="R28">
-        <v>2.214901523052</v>
-      </c>
-      <c r="S28">
-        <v>0.005588500745676038</v>
-      </c>
-      <c r="T28">
-        <v>0.007333248035759975</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H29">
-        <v>2.949851</v>
-      </c>
-      <c r="I29">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J29">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.611755</v>
-      </c>
-      <c r="N29">
-        <v>1.22351</v>
-      </c>
-      <c r="O29">
-        <v>0.05056191731758031</v>
-      </c>
-      <c r="P29">
-        <v>0.04060144467619692</v>
-      </c>
-      <c r="Q29">
-        <v>0.6015286995016667</v>
-      </c>
-      <c r="R29">
-        <v>3.60917219701</v>
-      </c>
-      <c r="S29">
-        <v>0.01365965572577969</v>
-      </c>
-      <c r="T29">
-        <v>0.01194949511252908</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H30">
-        <v>2.949851</v>
-      </c>
-      <c r="I30">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J30">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>4.001879333333334</v>
-      </c>
-      <c r="N30">
-        <v>12.005638</v>
-      </c>
-      <c r="O30">
-        <v>0.3307577248521605</v>
-      </c>
-      <c r="P30">
-        <v>0.3983998880756573</v>
-      </c>
-      <c r="Q30">
-        <v>3.934982584437556</v>
-      </c>
-      <c r="R30">
-        <v>35.414843259938</v>
-      </c>
-      <c r="S30">
-        <v>0.08935651355435768</v>
-      </c>
-      <c r="T30">
-        <v>0.1172538946177746</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H31">
-        <v>2.949851</v>
-      </c>
-      <c r="I31">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J31">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.3570200000000001</v>
-      </c>
-      <c r="N31">
-        <v>1.07106</v>
-      </c>
-      <c r="O31">
-        <v>0.02950791692870925</v>
-      </c>
-      <c r="P31">
-        <v>0.03554248296694549</v>
-      </c>
-      <c r="Q31">
-        <v>0.3510519346733333</v>
-      </c>
-      <c r="R31">
-        <v>3.15946741206</v>
-      </c>
-      <c r="S31">
-        <v>0.007971770213922022</v>
-      </c>
-      <c r="T31">
-        <v>0.01046058163417169</v>
+        <v>0.002973239420380352</v>
       </c>
     </row>
   </sheetData>
